--- a/词条集合.xlsx
+++ b/词条集合.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A9E0775A-0448-400C-AA2C-B0580C6A9FEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB02D2B-43CE-4EF1-A064-F736FCF82E4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1259">
   <si>
     <t>认证方式选择</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2135,10 +2135,6 @@
   </si>
   <si>
     <t>Create new account</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码？</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3461,12 +3457,3082 @@
     <t>%s充值地址</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>密码格式不正确</t>
+  </si>
+  <si>
+    <t>Enter password does not conform the rules</t>
+  </si>
+  <si>
+    <t>取消认证</t>
+  </si>
+  <si>
+    <t>cancellation of verification/certification</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单</t>
+  </si>
+  <si>
+    <t>All orders</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级说明</t>
+  </si>
+  <si>
+    <t>Level description</t>
+  </si>
+  <si>
+    <t>取消商户身份认证</t>
+  </si>
+  <si>
+    <t>cancellation of merchant qualification</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户身份取消之前,你需要撤销所有已经发布的广告并将所有进行中订单处理完毕；成功取消后广告发布权限将会收回，同时您所缴纳的保证金将会被解冻成为可用状态。\n您确定要取消商户身份资格？</t>
+  </si>
+  <si>
+    <r>
+      <t>Before the identity of the merchant is cancelled, you need to cancel all advertisements that have been posted and process all ongoing orders.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Advertising rights will be withdrawn after successful cancellation, and your margin will be unfrozen and available. </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户享有更高的</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Users of V3 level have higher limit of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>withdrawal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s and legal OTC transactions within 24h</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>为您的店铺设置新的昵称</t>
+  </si>
+  <si>
+    <t>Set a nickname for your shop</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>%d日成交：%f</t>
+  </si>
+  <si>
+    <r>
+      <t>transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> within 1d/3d/1w/1m</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他日期</t>
+  </si>
+  <si>
+    <t>other dates</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商铺昵称</t>
+  </si>
+  <si>
+    <t>nickname for your shop</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改昵称</t>
+  </si>
+  <si>
+    <t>change the nickname</t>
+  </si>
+  <si>
+    <t>编号 / 币种</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o./coins</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>总额 / 完成</t>
+  </si>
+  <si>
+    <t>Tot/Filled</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数 / 完成</t>
+  </si>
+  <si>
+    <t>Amt/Filled</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告撤销</t>
+  </si>
+  <si>
+    <t>Ad cancellation</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告订单</t>
+  </si>
+  <si>
+    <r>
+      <t>Orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for ad</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>求购</t>
+  </si>
+  <si>
+    <r>
+      <t>want</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to by</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售</t>
+  </si>
+  <si>
+    <r>
+      <t>want</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to sell</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lease choose</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单限制：</t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rder limit</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易数量</t>
+  </si>
+  <si>
+    <t>Volume of transactions</t>
+  </si>
+  <si>
+    <t>请选择交易类型</t>
+  </si>
+  <si>
+    <t>Please choose transaction type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交易数量要大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The number of transactions must</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>greater than 0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易单价要大于0</t>
+  </si>
+  <si>
+    <r>
+      <t>The price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of transactions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>must</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>greater than 0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小限制金额要大于0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The minimum limit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>must be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> greater than</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大限制金额要大于最小限制金额</t>
+  </si>
+  <si>
+    <r>
+      <t>The maximum limit amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> must be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> greater than the minimum limit amount</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐ID</t>
+  </si>
+  <si>
+    <t>referal ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核中</t>
+  </si>
+  <si>
+    <t>Verifying</t>
+  </si>
+  <si>
+    <t>我的广告</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y ads</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新广告</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ew ad</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>etail</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在加载...</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>oading</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>quit/log out</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即登录</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ogin now</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>eset password</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置新密码</t>
+  </si>
+  <si>
+    <t>set new password</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hinese</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告内包含的未完成的订单将继续保留，请是否确认撤销广告？</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>The unfinished orders included in the advertisement will continue to be retained. Will you confirm the cancellation of the advertisement?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推荐人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（选填）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>referal ID(Optional)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱/手机</t>
+  </si>
+  <si>
+    <t>email/mobile numbers</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请阅读服务协议</t>
+  </si>
+  <si>
+    <t>Terms and condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确的密码</t>
+  </si>
+  <si>
+    <t>Please input the correct password</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>completed</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入新密码</t>
+  </si>
+  <si>
+    <t>please enter a new password</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的登录密码</t>
+  </si>
+  <si>
+    <t>new login password</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认登录密码</t>
+  </si>
+  <si>
+    <t>Confirm login password</t>
+  </si>
+  <si>
+    <t>登录密码修改后24小时内不允许提现</t>
+  </si>
+  <si>
+    <r>
+      <t>No entry is allowed within 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after the login password is modified</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入您的邮箱地址</t>
+  </si>
+  <si>
+    <r>
+      <t>please</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> enter you email</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入您的登录密码</t>
+  </si>
+  <si>
+    <r>
+      <t>please</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> enter you login password</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在清理缓存...</t>
+  </si>
+  <si>
+    <t>Clearing cache</t>
+  </si>
+  <si>
+    <t>验证码</t>
+  </si>
+  <si>
+    <t>Verification Code</t>
+  </si>
+  <si>
+    <t>发送</t>
+  </si>
+  <si>
+    <t>send</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在注册，请稍后...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registering, please wait... </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在设置，请稍后...</t>
+  </si>
+  <si>
+    <r>
+      <t>Setting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>please wait</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请稍后...</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>onfirm</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人认证</t>
+  </si>
+  <si>
+    <t>personal verification</t>
+  </si>
+  <si>
+    <t>用户等级</t>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ser level</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴纳</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ay</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回</t>
+  </si>
+  <si>
+    <t>refund</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣罚</t>
+  </si>
+  <si>
+    <t>Fine</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码格式错误</t>
+  </si>
+  <si>
+    <t>The new password entered does not match the format</t>
+  </si>
+  <si>
+    <t>旧密码格式错误</t>
+  </si>
+  <si>
+    <t>The old password entered does not match the format</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次新密码不一致</t>
+  </si>
+  <si>
+    <t>The passwords you entered must be the same</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>change password</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证</t>
+  </si>
+  <si>
+    <t>SMS verification</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> card</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>护照</t>
+  </si>
+  <si>
+    <t>passport</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓氏</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ull Name</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择您的出生日期</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写您的家庭住址</t>
+  </si>
+  <si>
+    <t>Residence Address</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写邮政编码</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写您所在城市</t>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择国家或地区</t>
+  </si>
+  <si>
+    <t>Country/Region</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写您的基本信息</t>
+  </si>
+  <si>
+    <t>Please Entry personal basic info</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写您的居住地址</t>
+  </si>
+  <si>
+    <t>邮政编码</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>国家及地区</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>Male</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证正面</t>
+  </si>
+  <si>
+    <t>front page of ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加支付宝</t>
+  </si>
+  <si>
+    <t>Add AliPay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑支付宝</t>
+  </si>
+  <si>
+    <t>Modify AliPay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加银行卡</t>
+  </si>
+  <si>
+    <t>Add Bank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加微信</t>
+  </si>
+  <si>
+    <t>Add Wechat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改微信</t>
+  </si>
+  <si>
+    <t>Modify Wechat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传一张面部照片</t>
+  </si>
+  <si>
+    <t>Upload a personal photo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（请手持一张写有“泰沃”字样和当天日期的便签）</t>
+  </si>
+  <si>
+    <t>(Please hold a handwritten note with the word "TaiWo" and today's date)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
+    <t>e.g:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定的手机号码：%s</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Binding mobile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> phone number: %s</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定的邮箱：%s</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Binding email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: %s</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>原手机号：%s</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Original mobile phone number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: %s</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>原手机号</t>
+  </si>
+  <si>
+    <t>Original mobile phone number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>原邮箱号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oeiginal email</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>原邮箱：%s</t>
+  </si>
+  <si>
+    <r>
+      <t>Original  email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: %s</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\t\t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为了您的账户安全，请先验证您的原邮箱号，点击获取验证码，您将收到一条附有验证码的邮件</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>For the sake of your account security, please verify your original mailbox number.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Send verification code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and you will receive an email with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>verification code</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">\t\t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为了您的账号安全，请先验证您的原手机号，点击获取验证码，您将收到一条附有验证码的短信</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>For the sake of your account security, please verify your original mobile phone No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Send verification code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and you will receive a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n SMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>verification code</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送验证码</t>
+  </si>
+  <si>
+    <t>Send verification code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倒计时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%dS</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>%d sec</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重发验证码</t>
+  </si>
+  <si>
+    <t>resend</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入新邮箱号</t>
+  </si>
+  <si>
+    <r>
+      <t>please</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> enter new email</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入新手机号</t>
+  </si>
+  <si>
+    <r>
+      <t>please</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> enter new mobile phone No.</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择国家/地区</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hoose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> countries / regions </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改绑定邮箱</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>odify the binding email</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改绑定手机号</t>
+  </si>
+  <si>
+    <t>modify the binding mobile phone No.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改语言</t>
+  </si>
+  <si>
+    <t>choose a language</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请输入您的问题或建议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter your promble/advice</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他问题/建议</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other questions/suggestions </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入您的联系电话（选填）</t>
+  </si>
+  <si>
+    <t>Phone number (Optional)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择问题类型</t>
+  </si>
+  <si>
+    <t>Choose a type of problem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>Search</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
+  </si>
+  <si>
+    <t>Upload photo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码</t>
+  </si>
+  <si>
+    <t>QR code</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款</t>
+  </si>
+  <si>
+    <t>receipt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（必填）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Required)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（选填）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Optional)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击放大</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click to enlarge</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已隐藏</t>
+  </si>
+  <si>
+    <t>hided</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancelled</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>recepit</t>
+  </si>
+  <si>
+    <t>截至</t>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有图片</t>
+  </si>
+  <si>
+    <t>All Photo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请开启相机权限</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please turn on camera permissions</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>从相册中选择</t>
+  </si>
+  <si>
+    <t>Choose from Album</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请开启读文件权限</t>
+  </si>
+  <si>
+    <t>Please turn on Read SDK permissions</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加附件</t>
+  </si>
+  <si>
+    <t>Add attachment</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入关键字搜索</t>
+  </si>
+  <si>
+    <t>Please enter search key</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多只能选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张图片</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can only select up to %d images</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史纪录</t>
+  </si>
+  <si>
+    <t>History records</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>估值(BTC)</t>
+  </si>
+  <si>
+    <t>Estimate(BTC)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择币种</t>
+  </si>
+  <si>
+    <t>Choose Coin</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>限额和提示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limits and tips</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新地址</t>
+  </si>
+  <si>
+    <t>Add New Address</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s充值地址</t>
+  </si>
+  <si>
+    <t>%s Recharge Address</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制成功</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successful copy</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制失败</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy failed</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择提现地址</t>
+  </si>
+  <si>
+    <t>Choose Recharge Address</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Available</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结</t>
+  </si>
+  <si>
+    <t>Frozen</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部类型</t>
+  </si>
+  <si>
+    <t>All Type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天</t>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看更多》</t>
+  </si>
+  <si>
+    <r>
+      <t>More</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶</t>
+  </si>
+  <si>
+    <t>To Top</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑自选</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit Favorite</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully modified</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前选择：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%s</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current selection: %s</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择市场</t>
+  </si>
+  <si>
+    <t>Choose Market</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格(%s)</t>
+  </si>
+  <si>
+    <t>Price(%s)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量(%s)</t>
+  </si>
+  <si>
+    <t>Value(%s)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出</t>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速买入</t>
+  </si>
+  <si>
+    <t>快速卖出</t>
+  </si>
+  <si>
+    <t>去交易页</t>
+  </si>
+  <si>
+    <t>To Trade</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1分</t>
+  </si>
+  <si>
+    <t>5分</t>
+  </si>
+  <si>
+    <t>15分</t>
+  </si>
+  <si>
+    <t>30分</t>
+  </si>
+  <si>
+    <t>1小时</t>
+  </si>
+  <si>
+    <t>2小时</t>
+  </si>
+  <si>
+    <t>4小时</t>
+  </si>
+  <si>
+    <t>6小时</t>
+  </si>
+  <si>
+    <t>12小时</t>
+  </si>
+  <si>
+    <t>日线</t>
+  </si>
+  <si>
+    <t>周线</t>
+  </si>
+  <si>
+    <t>开</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>收</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>幅</t>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>量</t>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>删自选</t>
+  </si>
+  <si>
+    <t>请输入价格</t>
+  </si>
+  <si>
+    <t>Please enter Price</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入数量</t>
+  </si>
+  <si>
+    <t>Please enter Value</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+  </si>
+  <si>
+    <t>当日成交</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>24h trades</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日委托</t>
+  </si>
+  <si>
+    <t>24h orders</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史成交</t>
+  </si>
+  <si>
+    <t>history trades</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交</t>
+  </si>
+  <si>
+    <t>trade</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>30D trades:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始验证</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin Verification</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入您的姓名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please entry your name</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个汉字或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个英文字符，不包括特殊字符</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 bits that exclude the special characters</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>oading...</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do not withdrawal directly to a crowdfund or ICO.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>In Use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Minimum withdrawal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seller is confirming the payment</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>revoke appeal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current processor:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appeal Code:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请输入您的申诉内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter the content of the complaint </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rder Appeal</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请仲裁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply for arbitration</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>您确定发起仲裁？</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure to apply arbitration?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行转账</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank Transfer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rder not in Limit Range</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lease enter the amount of trade</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大可卖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%f</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum saleable %f</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum saleable %s</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大可买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%f</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum buyable %f</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum buyable %s</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please pay the order</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you need to verify,please do the following steps:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现额度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Withdrawal Limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易额度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ransaction Limit</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号/币种</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o,/Coin</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数/完成</t>
+  </si>
+  <si>
+    <r>
+      <t>Amt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Filled</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t\t身份认证完成后，您的账户级别将上升为L2。（每日提现额度提升，并获得法币OTC交易权限）</t>
+  </si>
+  <si>
+    <t>\t\tAfter verification, your user level will rise to Level2 (Get a higher limig for withdrawal within 24h and you can do the OTC transactions)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（请确保照片的内容完整并清晰可见）</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Make suer the picture is complete and clear)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新价</t>
+  </si>
+  <si>
+    <t>Latest Price</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>限额说明</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情</t>
+  </si>
+  <si>
+    <t>Markets</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产</t>
+  </si>
+  <si>
+    <t>Funds</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">volume </t>
+  </si>
+  <si>
+    <t>成交量：</t>
+  </si>
+  <si>
+    <t>volume:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>24h涨跌</t>
+  </si>
+  <si>
+    <t>24h Chg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托订单/最新成交</t>
+  </si>
+  <si>
+    <t>orders/Filled</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高：</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>igh:</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低：</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ow:</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>今开：</t>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pen:</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托订单</t>
+  </si>
+  <si>
+    <t>Orders</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新成交</t>
+  </si>
+  <si>
+    <t>Trades</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度</t>
+  </si>
+  <si>
+    <t>Depth</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>分时</t>
+  </si>
+  <si>
+    <t>限价委托</t>
+  </si>
+  <si>
+    <t>Limit order</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>市价委托</t>
+  </si>
+  <si>
+    <t>Market order</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>均价/数量</t>
+  </si>
+  <si>
+    <t>Avg/Amt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向/总额</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ot</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费/类型</t>
+  </si>
+  <si>
+    <t>Fee/type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>30日成交：</t>
+  </si>
+  <si>
+    <t>注意：如果当日取消订单达到3次，系统将限制您的买入权限。</t>
+  </si>
+  <si>
+    <t>Notice:if the number of orders is cancelled 3 times a day, the platform will prohibit you purchase.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>您确定已经付款完成？如果在没有支付情况下却点击“已支付”按钮的话，将可能面临帐号冻结的处理。</t>
+  </si>
+  <si>
+    <t>Are you sure that the payment has been completed? If you click the  "I have Paid" button without paying, you may face account freeze.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果您已经付款，请不要点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以免造成财产损失！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您确认取消订单？</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have paid, please do not click "Cancel" to prevent financial losses.  Do you confirm the cancellation of the order? </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“确认收款”后系统将划转订单包含的数字币给对方。请仔细核对您的收款，谨防财产损失！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After clicking the "received payment", the system will transfer the VC assets in the order to each other. Please check your receipts carefully to prevent financial losses. </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易价格</t>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额</t>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额：</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>otal:</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家处理</t>
+  </si>
+  <si>
+    <t>Buyer handing</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家处理</t>
+  </si>
+  <si>
+    <t>Seller handing</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉中（仲裁），当前处理人为您</t>
+  </si>
+  <si>
+    <t>Appeal-arbitrating</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉中（仲裁），当前处理人为对方</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本次交易中的数字币资产将由平台托管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请直接支付交易款项到对方指定的收款账户。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>\n2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成付款后，请务必点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我已付款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> \n3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对方确认收款后，平台将自动划转本次交易的数字币资产到您的账户。</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VC assets sole by seller on this transaction are protected by platform; please pay the transaction directly to seller's designated account. After payment is completed, please click "I HAVE PAID" button. When the seller confirms receipt, the platform will automatically transfer the VC assets for this transaction to your account.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. :</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码?</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入8~12位同时包含数字和字母的密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8~12 bits contain numbers and letters. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trades(1Mth):</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5m</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>15m</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>30m</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>12h</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1w</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入8~12位包含数字和字母组合的新密码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter a new password that contains 8~12 numbers and letters</t>
+  </si>
+  <si>
+    <t>请输入6位数字密码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter a 6 digit password</t>
+  </si>
+  <si>
+    <t>邮箱地址不正确</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The account does not exist</t>
+  </si>
+  <si>
+    <t>手机号码不正确</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先完成实名认证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please complete the identity verification first</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份认证审核中，请耐心等待</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifying,please waitting…</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>请设置您的资金密码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please set your capital password</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>请完成以下设置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please complete the following settings</t>
+  </si>
+  <si>
+    <t>已设置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收/付款方式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment and receipt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产明细</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入数字币数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please input the number of VC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifying</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧密码格式不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old password incorrect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binding success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号绑定成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>注册成功</t>
+  </si>
+  <si>
+    <t>账户</t>
+  </si>
+  <si>
+    <t>Login successfully</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register successfully</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3528,13 +6594,86 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3564,7 +6703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -3587,15 +6726,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3876,10 +7060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:F407"/>
+  <dimension ref="C1:J686"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D391" sqref="D391"/>
+    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
+      <selection activeCell="C690" sqref="C690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5805,106 +8989,106 @@
     </row>
     <row r="240" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C240" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D240" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="241" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C241" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D241" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="242" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C242" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D242" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="D242" s="6" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="243" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C243" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D243" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="244" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C244" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D244" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="D244" s="6" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="245" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C245" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D245" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="246" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C246" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D246" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="247" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C247" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D247" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="248" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C248" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D248" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="D248" s="5" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="249" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C249" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D249" s="5" t="s">
         <v>442</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="250" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C250" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D250" s="5" t="s">
         <v>444</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="251" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C251" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D251" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="252" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C252" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D252" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="D252" s="5" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="253" spans="3:4" x14ac:dyDescent="0.2">
@@ -5912,7 +9096,7 @@
         <v>230</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="254" spans="3:4" x14ac:dyDescent="0.2">
@@ -5925,159 +9109,159 @@
     </row>
     <row r="255" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C255" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D255" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="256" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C256" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D256" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="257" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C257" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D257" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="D257" s="6" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="258" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C258" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D258" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="259" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C259" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D259" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="D259" s="6" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="260" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C260" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D260" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="261" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C261" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D261" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="262" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C262" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D262" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="263" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C263" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D263" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="264" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C264" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D264" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="D264" s="6" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="265" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C265" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D265" s="6" t="s">
         <v>471</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="266" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C266" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D266" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="267" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C267" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D267" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="268" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C268" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D268" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="D268" s="6" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="269" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C269" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D269" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="D269" s="6" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="270" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C270" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D270" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="271" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C271" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D271" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="272" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C272" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D272" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="273" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C273" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D273" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="274" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C274" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>370</v>
@@ -6085,96 +9269,96 @@
     </row>
     <row r="275" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C275" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D275" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="276" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C276" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D276" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D276" s="6" t="s">
+    </row>
+    <row r="277" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C277" s="30" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C277" s="10" t="s">
+      <c r="D277" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="D277" s="6" t="s">
+    </row>
+    <row r="278" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C278" s="30"/>
+      <c r="D278" s="6" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C278" s="10"/>
-      <c r="D278" s="6" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="279" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C279" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D279" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="280" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C280" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D280" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="281" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C281" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D281" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="D281" s="6" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="282" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C282" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D282" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="283" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C283" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D283" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="284" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C284" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="285" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C285" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D285" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="286" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C286" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D286" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="D286" s="6" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="287" spans="3:4" x14ac:dyDescent="0.2">
@@ -6182,31 +9366,31 @@
         <v>404</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="288" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C288" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D288" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="D288" s="6" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="289" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C289" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D289" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="D289" s="6" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="290" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C290" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D290" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="D290" s="6" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="291" spans="3:4" x14ac:dyDescent="0.2">
@@ -6219,79 +9403,79 @@
     </row>
     <row r="292" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C292" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D292" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="293" spans="3:4" ht="171" x14ac:dyDescent="0.2">
       <c r="C293" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="D293" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="D293" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="294" spans="3:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="C294" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D294" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="D294" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="295" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C295" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D295" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="296" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C296" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D296" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="D296" s="6" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="297" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C297" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D297" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="298" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C298" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D298" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="299" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C299" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D299" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="D299" s="6" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="300" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C300" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D300" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="D300" s="6" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="301" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C301" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>376</v>
@@ -6299,74 +9483,74 @@
     </row>
     <row r="302" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C302" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D302" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="303" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C303" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D303" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="D303" s="6" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="304" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C304" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D304" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="305" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C305" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D305" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="D305" s="6" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="306" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C306" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D306" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="D306" s="6" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="307" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C307" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D307" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="D307" s="6" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="308" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C308" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D308" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="D308" s="6" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="309" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C309" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D309" s="6" t="s">
         <v>548</v>
-      </c>
-      <c r="D309" s="6" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="310" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C310" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D310" s="6" t="s">
         <v>550</v>
-      </c>
-      <c r="D310" s="6" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="311" spans="3:4" x14ac:dyDescent="0.2">
@@ -6374,31 +9558,31 @@
         <v>418</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="312" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C312" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D312" s="6" t="s">
         <v>553</v>
-      </c>
-      <c r="D312" s="6" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="313" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C313" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D313" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="D313" s="6" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="314" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C314" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D314" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="D314" s="6" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="315" spans="3:4" x14ac:dyDescent="0.2">
@@ -6411,7 +9595,7 @@
     </row>
     <row r="316" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C316" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>374</v>
@@ -6419,39 +9603,39 @@
     </row>
     <row r="317" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C317" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D317" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="D317" s="6" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="318" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C318" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D318" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="D318" s="6" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="319" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C319" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D319" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="D319" s="6" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="320" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C320" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D320" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="D320" s="6" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="321" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C321" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>374</v>
@@ -6459,63 +9643,63 @@
     </row>
     <row r="322" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C322" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D322" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="D322" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="323" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C323" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D323" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="D323" s="6" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="324" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C324" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D324" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="D324" s="6" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="325" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C325" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C326" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D326" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="D326" s="6" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="327" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C327" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D327" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="D327" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="328" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C328" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D328" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="D328" s="6" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="329" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C329" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>419</v>
@@ -6523,503 +9707,503 @@
     </row>
     <row r="330" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C330" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D330" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="D330" s="6" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="331" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C331" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D331" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="D331" s="6" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="332" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C332" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D332" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="D332" s="6" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="333" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C333" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D333" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="D333" s="6" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="334" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C334" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D334" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="D334" s="6" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="335" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C335" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D335" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="D335" s="6" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="336" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C336" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D336" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="D336" s="6" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="337" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C337" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D337" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="D337" s="6" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="338" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C338" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D338" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="D338" s="6" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="339" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C339" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D339" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="D339" s="6" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="340" spans="3:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C340" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="D340" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="D340" s="7" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="341" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C341" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D341" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="D341" s="6" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="342" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C342" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D342" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="D342" s="6" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="343" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C343" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="344" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C344" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D344" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="D344" s="6" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="345" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C345" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D345" s="6" t="s">
         <v>611</v>
-      </c>
-      <c r="D345" s="6" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="346" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C346" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D346" s="6" t="s">
         <v>613</v>
-      </c>
-      <c r="D346" s="6" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="347" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C347" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D347" s="6" t="s">
         <v>615</v>
-      </c>
-      <c r="D347" s="6" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="348" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C348" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D348" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="D348" s="6" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="349" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C349" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D349" s="6" t="s">
         <v>619</v>
-      </c>
-      <c r="D349" s="6" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="350" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C350" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D350" s="6" t="s">
         <v>621</v>
-      </c>
-      <c r="D350" s="6" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="351" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C351" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D351" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="D351" s="6" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="352" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C352" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D352" s="6" t="s">
         <v>625</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="353" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C353" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D353" s="6" t="s">
         <v>627</v>
-      </c>
-      <c r="D353" s="6" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="354" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C354" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D354" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="D354" s="6" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="355" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C355" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D355" s="6" t="s">
         <v>631</v>
-      </c>
-      <c r="D355" s="6" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="356" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C356" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="D356" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="D356" s="6" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="357" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C357" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D357" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="D357" s="6" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="358" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C358" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D358" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="359" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C359" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D359" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="D359" s="6" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="360" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C360" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="D360" s="6" t="s">
         <v>641</v>
-      </c>
-      <c r="D360" s="6" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="361" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C361" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D361" s="6" t="s">
         <v>643</v>
-      </c>
-      <c r="D361" s="6" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="362" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C362" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D362" s="10" t="s">
         <v>645</v>
-      </c>
-      <c r="D362" s="11" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="363" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C363" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="D363" s="6" t="s">
         <v>647</v>
-      </c>
-      <c r="D363" s="6" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="364" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C364" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D364" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="D364" s="6" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="365" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C365" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D365" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="D365" s="6" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="366" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C366" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D366" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="D366" s="6" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="367" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C367" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D367" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="D367" s="6" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="368" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C368" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D368" s="6" t="s">
         <v>657</v>
-      </c>
-      <c r="D368" s="6" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="369" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C369" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D369" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="D369" s="6" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="370" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C370" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D370" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="D370" s="6" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="371" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C371" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D371" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="D371" s="6" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="372" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C372" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D372" s="6" t="s">
         <v>665</v>
-      </c>
-      <c r="D372" s="6" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="373" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C373" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D373" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="D373" s="6" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="374" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C374" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D374" s="6" t="s">
         <v>669</v>
-      </c>
-      <c r="D374" s="6" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="375" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C375" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D375" s="11" t="s">
         <v>671</v>
-      </c>
-      <c r="D375" s="12" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="376" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C376" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="D376" s="11" t="s">
         <v>673</v>
-      </c>
-      <c r="D376" s="12" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="377" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C377" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D377" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="D377" s="12" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="378" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C378" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D378" s="11" t="s">
         <v>677</v>
-      </c>
-      <c r="D378" s="12" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="379" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C379" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D379" s="11" t="s">
         <v>679</v>
-      </c>
-      <c r="D379" s="12" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="380" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C380" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D380" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="D380" s="6" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="381" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C381" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D381" s="6" t="s">
         <v>683</v>
-      </c>
-      <c r="D381" s="6" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="382" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C382" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D382" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="D382" s="6" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="383" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C383" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="384" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C384" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D384" s="6" t="s">
         <v>687</v>
-      </c>
-      <c r="D384" s="6" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="385" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C385" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="D385" s="6" t="s">
         <v>689</v>
-      </c>
-      <c r="D385" s="6" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="386" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C386" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="D386" s="6" t="s">
         <v>691</v>
-      </c>
-      <c r="D386" s="6" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="387" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C387" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D387" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="D387" s="6" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="388" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C388" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D388" s="6" t="s">
         <v>695</v>
-      </c>
-      <c r="D388" s="6" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="389" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C389" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D389" s="6" t="s">
         <v>697</v>
-      </c>
-      <c r="D389" s="6" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="390" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C390" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D390" s="6" t="s">
         <v>699</v>
-      </c>
-      <c r="D390" s="6" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="391" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C391" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="392" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C392" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D392" s="6" t="s">
         <v>382</v>
@@ -7027,7 +10211,7 @@
     </row>
     <row r="393" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C393" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D393" s="6" t="s">
         <v>419</v>
@@ -7043,31 +10227,31 @@
     </row>
     <row r="395" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C395" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D395" s="6" t="s">
         <v>704</v>
-      </c>
-      <c r="D395" s="6" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="396" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C396" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="D396" s="6" t="s">
         <v>706</v>
-      </c>
-      <c r="D396" s="6" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="397" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C397" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D397" s="6" t="s">
         <v>708</v>
-      </c>
-      <c r="D397" s="6" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="398" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C398" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>376</v>
@@ -7078,71 +10262,2895 @@
         <v>416</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="400" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C400" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D400" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="D400" s="6" t="s">
+    </row>
+    <row r="401" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C401" s="6" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="401" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C401" s="6" t="s">
+      <c r="D401" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="D401" s="6" t="s">
+    </row>
+    <row r="402" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C402" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D402" s="6" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="402" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C402" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D402" s="6" t="s">
+    <row r="403" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C403" s="6" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="403" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C403" s="6" t="s">
+      <c r="D403" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="D403" s="6" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="404" spans="3:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C404" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="405" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C405" s="6" t="s">
         <v>383</v>
       </c>
       <c r="D405" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="406" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C406" s="6" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="406" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C406" s="6" t="s">
+      <c r="D406" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="D406" s="6" t="s">
+    </row>
+    <row r="407" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C407" s="6" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="407" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C407" s="6" t="s">
+      <c r="D407" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D407" s="6" t="s">
-        <v>723</v>
+    </row>
+    <row r="408" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C408" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D408" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="E408" s="12"/>
+      <c r="F408" s="12"/>
+    </row>
+    <row r="409" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C409" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="D409" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="E409" s="12"/>
+      <c r="F409" s="12"/>
+    </row>
+    <row r="410" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C410" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="D410" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="E410" s="12"/>
+      <c r="F410" s="12"/>
+    </row>
+    <row r="411" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C411" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D411" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="E411" s="12"/>
+      <c r="F411" s="12"/>
+    </row>
+    <row r="412" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C412" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="D412" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="E412" s="12"/>
+      <c r="F412" s="12"/>
+    </row>
+    <row r="413" spans="3:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C413" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E413" s="12"/>
+      <c r="F413" s="12"/>
+    </row>
+    <row r="414" spans="3:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="C414" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D414" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="E414" s="12"/>
+      <c r="F414" s="12"/>
+    </row>
+    <row r="415" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C415" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="D415" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="E415" s="12"/>
+      <c r="F415" s="12"/>
+    </row>
+    <row r="416" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C416" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="D416" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="E416" s="12"/>
+      <c r="F416" s="12"/>
+    </row>
+    <row r="417" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C417" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D417" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="E417" s="12"/>
+      <c r="F417" s="12"/>
+    </row>
+    <row r="418" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C418" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="D418" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="E418" s="12"/>
+      <c r="F418" s="12"/>
+    </row>
+    <row r="419" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C419" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="D419" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="E419" s="12"/>
+      <c r="F419" s="12"/>
+    </row>
+    <row r="420" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C420" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="D420" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="E420" s="12"/>
+      <c r="F420" s="12"/>
+    </row>
+    <row r="421" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C421" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D421" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E421" s="12"/>
+      <c r="F421" s="12"/>
+    </row>
+    <row r="422" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C422" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D422" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="E422" s="12"/>
+      <c r="F422" s="12"/>
+    </row>
+    <row r="423" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C423" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D423" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="E423" s="12"/>
+      <c r="F423" s="12"/>
+    </row>
+    <row r="424" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C424" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D424" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="E424" s="12"/>
+      <c r="F424" s="12"/>
+    </row>
+    <row r="425" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C425" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D425" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="E425" s="12"/>
+      <c r="F425" s="12"/>
+    </row>
+    <row r="426" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C426" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="D426" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="E426" s="12"/>
+      <c r="F426" s="12"/>
+    </row>
+    <row r="427" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C427" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D427" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="E427" s="12"/>
+      <c r="F427" s="12"/>
+    </row>
+    <row r="428" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C428" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="D428" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="E428" s="12"/>
+      <c r="F428" s="12"/>
+    </row>
+    <row r="429" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C429" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D429" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="E429" s="12"/>
+      <c r="F429" s="12"/>
+    </row>
+    <row r="430" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C430" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="D430" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="E430" s="12"/>
+      <c r="F430" s="12"/>
+    </row>
+    <row r="431" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C431" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D431" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="E431" s="12"/>
+      <c r="F431" s="12"/>
+    </row>
+    <row r="432" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C432" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D432" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E432" s="12"/>
+      <c r="F432" s="12"/>
+    </row>
+    <row r="433" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C433" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="D433" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="E433" s="12"/>
+      <c r="F433" s="12"/>
+    </row>
+    <row r="434" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C434" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="D434" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="E434" s="12"/>
+      <c r="F434" s="12"/>
+    </row>
+    <row r="435" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C435" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="D435" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="E435" s="12"/>
+      <c r="F435" s="12"/>
+    </row>
+    <row r="436" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C436" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="D436" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="E436" s="12"/>
+      <c r="F436" s="12"/>
+    </row>
+    <row r="437" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C437" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="D437" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="E437" s="12"/>
+      <c r="F437" s="12"/>
+    </row>
+    <row r="438" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C438" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D438" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="E438" s="12"/>
+      <c r="F438" s="12"/>
+    </row>
+    <row r="439" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C439" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="D439" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="E439" s="12"/>
+      <c r="F439" s="12"/>
+    </row>
+    <row r="440" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C440" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="D440" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="E440" s="12"/>
+      <c r="F440" s="12"/>
+    </row>
+    <row r="441" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C441" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="D441" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="E441" s="12"/>
+      <c r="F441" s="12"/>
+    </row>
+    <row r="442" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C442" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="D442" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="E442" s="12"/>
+      <c r="F442" s="12"/>
+    </row>
+    <row r="443" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C443" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="D443" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="E443" s="12"/>
+      <c r="F443" s="12"/>
+    </row>
+    <row r="444" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C444" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="D444" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="E444" s="12"/>
+      <c r="F444" s="12"/>
+    </row>
+    <row r="445" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C445" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="D445" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="E445" s="12"/>
+      <c r="F445" s="12"/>
+    </row>
+    <row r="446" spans="3:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="C446" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="D446" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="E446" s="12"/>
+      <c r="F446" s="12"/>
+    </row>
+    <row r="447" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C447" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="D447" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="E447" s="12"/>
+      <c r="F447" s="12"/>
+    </row>
+    <row r="448" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C448" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="D448" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="E448" s="12"/>
+      <c r="F448" s="12"/>
+    </row>
+    <row r="449" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C449" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D449" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="E449" s="12"/>
+      <c r="F449" s="12"/>
+    </row>
+    <row r="450" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C450" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D450" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="E450" s="12"/>
+      <c r="F450" s="12"/>
+    </row>
+    <row r="451" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C451" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D451" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="E451" s="12"/>
+      <c r="F451" s="12"/>
+    </row>
+    <row r="452" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C452" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D452" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="E452" s="12"/>
+      <c r="F452" s="12"/>
+    </row>
+    <row r="453" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C453" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D453" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="E453" s="12"/>
+      <c r="F453" s="12"/>
+    </row>
+    <row r="454" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C454" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="D454" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="E454" s="12"/>
+      <c r="F454" s="12"/>
+    </row>
+    <row r="455" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C455" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D455" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="E455" s="12"/>
+      <c r="F455" s="12"/>
+    </row>
+    <row r="456" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C456" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="D456" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="E456" s="12"/>
+      <c r="F456" s="12"/>
+    </row>
+    <row r="457" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C457" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="D457" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="E457" s="12"/>
+      <c r="F457" s="12"/>
+    </row>
+    <row r="458" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C458" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="D458" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="E458" s="12"/>
+      <c r="F458" s="12"/>
+    </row>
+    <row r="459" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C459" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D459" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="E459" s="12"/>
+      <c r="F459" s="12"/>
+    </row>
+    <row r="460" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C460" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="D460" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="E460" s="12"/>
+      <c r="F460" s="12"/>
+    </row>
+    <row r="461" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C461" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="D461" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="E461" s="12"/>
+      <c r="F461" s="12"/>
+    </row>
+    <row r="462" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C462" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="D462" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="E462" s="12"/>
+      <c r="F462" s="12"/>
+    </row>
+    <row r="463" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C463" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D463" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="E463" s="12"/>
+      <c r="F463" s="12"/>
+    </row>
+    <row r="464" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C464" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="D464" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="E464" s="12"/>
+      <c r="F464" s="12"/>
+    </row>
+    <row r="465" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C465" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="D465" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="E465" s="12"/>
+      <c r="F465" s="12"/>
+    </row>
+    <row r="466" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C466" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="D466" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="E466" s="12"/>
+      <c r="F466" s="12"/>
+    </row>
+    <row r="467" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C467" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D467" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="E467" s="12"/>
+      <c r="F467" s="12"/>
+    </row>
+    <row r="468" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C468" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="D468" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="E468" s="12"/>
+      <c r="F468" s="12"/>
+    </row>
+    <row r="469" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C469" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="D469" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="E469" s="12"/>
+      <c r="F469" s="12"/>
+    </row>
+    <row r="470" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C470" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="D470" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="E470" s="12"/>
+      <c r="F470" s="12"/>
+    </row>
+    <row r="471" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C471" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="D471" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="E471" s="12"/>
+      <c r="F471" s="12"/>
+    </row>
+    <row r="472" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C472" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="D472" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="E472" s="12"/>
+      <c r="F472" s="12"/>
+    </row>
+    <row r="473" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C473" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="D473" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="E473" s="12"/>
+      <c r="F473" s="12"/>
+    </row>
+    <row r="474" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C474" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="D474" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="E474" s="12"/>
+      <c r="F474" s="12"/>
+    </row>
+    <row r="475" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C475" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="D475" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="E475" s="12"/>
+      <c r="F475" s="12"/>
+    </row>
+    <row r="476" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C476" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="D476" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="E476" s="12"/>
+      <c r="F476" s="12"/>
+    </row>
+    <row r="477" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C477" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="D477" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="E477" s="12"/>
+      <c r="F477" s="12"/>
+    </row>
+    <row r="478" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C478" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="D478" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="E478" s="12"/>
+      <c r="F478" s="12"/>
+    </row>
+    <row r="479" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C479" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="D479" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="E479" s="12"/>
+      <c r="F479" s="12"/>
+    </row>
+    <row r="480" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C480" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="D480" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="E480" s="12"/>
+      <c r="F480" s="12"/>
+    </row>
+    <row r="481" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C481" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D481" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="E481" s="12"/>
+      <c r="F481" s="12"/>
+    </row>
+    <row r="482" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C482" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D482" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="E482" s="12"/>
+      <c r="F482" s="12"/>
+    </row>
+    <row r="483" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C483" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="D483" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="E483" s="12"/>
+      <c r="F483" s="12"/>
+    </row>
+    <row r="484" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C484" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="D484" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="E484" s="12"/>
+      <c r="F484" s="12"/>
+    </row>
+    <row r="485" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C485" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="D485" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="E485" s="12"/>
+      <c r="F485" s="12"/>
+    </row>
+    <row r="486" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C486" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="D486" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="E486" s="12"/>
+      <c r="F486" s="12"/>
+    </row>
+    <row r="487" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C487" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="D487" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="E487" s="12"/>
+      <c r="F487" s="12"/>
+    </row>
+    <row r="488" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C488" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="D488" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="E488" s="12"/>
+      <c r="F488" s="12"/>
+    </row>
+    <row r="489" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C489" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="D489" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="E489" s="12"/>
+      <c r="F489" s="12"/>
+    </row>
+    <row r="490" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C490" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D490" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E490" s="12"/>
+      <c r="F490" s="12"/>
+    </row>
+    <row r="491" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C491" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="D491" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="E491" s="12"/>
+      <c r="F491" s="12"/>
+    </row>
+    <row r="492" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C492" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="D492" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="E492" s="12"/>
+      <c r="F492" s="12"/>
+    </row>
+    <row r="493" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C493" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="D493" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="E493" s="12"/>
+      <c r="F493" s="12"/>
+    </row>
+    <row r="494" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C494" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="D494" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="E494" s="12"/>
+      <c r="F494" s="12"/>
+    </row>
+    <row r="495" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C495" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="D495" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="E495" s="12"/>
+      <c r="F495" s="12"/>
+    </row>
+    <row r="496" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C496" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="D496" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="E496" s="12"/>
+      <c r="F496" s="12"/>
+    </row>
+    <row r="497" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C497" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="D497" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="E497" s="12"/>
+      <c r="F497" s="12"/>
+    </row>
+    <row r="498" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C498" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="D498" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="E498" s="12"/>
+      <c r="F498" s="12"/>
+    </row>
+    <row r="499" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C499" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D499" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="E499" s="12"/>
+      <c r="F499" s="12"/>
+    </row>
+    <row r="500" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C500" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="D500" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="E500" s="12"/>
+      <c r="F500" s="12"/>
+    </row>
+    <row r="501" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C501" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="D501" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="E501" s="12"/>
+      <c r="F501" s="12"/>
+    </row>
+    <row r="502" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C502" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="D502" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="E502" s="12"/>
+      <c r="F502" s="12"/>
+    </row>
+    <row r="503" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C503" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D503" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="E503" s="12"/>
+      <c r="F503" s="12"/>
+    </row>
+    <row r="504" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C504" s="16" t="s">
+        <v>915</v>
+      </c>
+      <c r="D504" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="E504" s="12"/>
+      <c r="F504" s="12"/>
+    </row>
+    <row r="505" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C505" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="D505" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="E505" s="12"/>
+      <c r="F505" s="12"/>
+    </row>
+    <row r="506" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C506" s="16" t="s">
+        <v>919</v>
+      </c>
+      <c r="D506" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="E506" s="12"/>
+      <c r="F506" s="12"/>
+    </row>
+    <row r="507" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C507" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="D507" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="E507" s="12"/>
+      <c r="F507" s="12"/>
+    </row>
+    <row r="508" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C508" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="D508" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="E508" s="12"/>
+      <c r="F508" s="12"/>
+    </row>
+    <row r="509" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C509" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="D509" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="E509" s="12"/>
+      <c r="F509" s="12"/>
+    </row>
+    <row r="510" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C510" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="D510" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="E510" s="12"/>
+      <c r="F510" s="12"/>
+    </row>
+    <row r="511" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C511" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D511" s="17" t="s">
+        <v>930</v>
+      </c>
+      <c r="E511" s="12"/>
+      <c r="F511" s="12"/>
+    </row>
+    <row r="512" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C512" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="D512" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="E512" s="12"/>
+      <c r="F512" s="12"/>
+    </row>
+    <row r="513" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C513" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="D513" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="E513" s="12"/>
+      <c r="F513" s="19"/>
+    </row>
+    <row r="514" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C514" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D514" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="E514" s="12"/>
+      <c r="F514" s="13"/>
+    </row>
+    <row r="515" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C515" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="D515" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="E515" s="12"/>
+      <c r="F515" s="13"/>
+    </row>
+    <row r="516" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C516" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="D516" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="E516" s="12"/>
+      <c r="F516" s="13"/>
+    </row>
+    <row r="517" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C517" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="D517" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="E517" s="12"/>
+      <c r="F517" s="13"/>
+    </row>
+    <row r="518" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C518" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="D518" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="E518" s="12"/>
+      <c r="F518" s="13"/>
+    </row>
+    <row r="519" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C519" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="D519" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="E519" s="12"/>
+      <c r="F519" s="13"/>
+    </row>
+    <row r="520" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C520" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="D520" s="20" t="s">
+        <v>948</v>
+      </c>
+      <c r="E520" s="12"/>
+      <c r="F520" s="20"/>
+    </row>
+    <row r="521" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C521" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="D521" s="12" t="s">
+        <v>950</v>
+      </c>
+      <c r="E521" s="12"/>
+      <c r="F521" s="12"/>
+    </row>
+    <row r="522" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C522" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="D522" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="E522" s="12"/>
+      <c r="F522" s="12"/>
+    </row>
+    <row r="523" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C523" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="D523" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="E523" s="12"/>
+      <c r="F523" s="12"/>
+    </row>
+    <row r="524" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C524" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="D524" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="E524" s="12"/>
+      <c r="F524" s="12"/>
+    </row>
+    <row r="525" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C525" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="D525" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="E525" s="12"/>
+      <c r="F525" s="12"/>
+    </row>
+    <row r="526" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C526" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="D526" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="E526" s="12"/>
+      <c r="F526" s="12"/>
+    </row>
+    <row r="527" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C527" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="D527" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="E527" s="12"/>
+      <c r="F527" s="12"/>
+    </row>
+    <row r="528" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C528" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="D528" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="E528" s="12"/>
+      <c r="F528" s="12"/>
+    </row>
+    <row r="529" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C529" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="D529" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="E529" s="12"/>
+      <c r="F529" s="12"/>
+    </row>
+    <row r="530" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C530" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="D530" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="E530" s="12"/>
+      <c r="F530" s="12"/>
+    </row>
+    <row r="531" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C531" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="D531" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="E531" s="12"/>
+      <c r="F531" s="12"/>
+    </row>
+    <row r="532" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C532" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="D532" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="E532" s="12"/>
+      <c r="F532" s="12"/>
+    </row>
+    <row r="533" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C533" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="D533" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="E533" s="12"/>
+      <c r="F533" s="12"/>
+    </row>
+    <row r="534" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C534" s="16" t="s">
+        <v>975</v>
+      </c>
+      <c r="D534" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="E534" s="12"/>
+      <c r="F534" s="12"/>
+    </row>
+    <row r="535" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C535" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="D535" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="E535" s="21" t="s">
+        <v>979</v>
+      </c>
+      <c r="F535" s="12" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="536" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C536" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="D536" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="E536" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="F536" s="12" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="537" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C537" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="D537" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="E537" s="12"/>
+      <c r="F537" s="12"/>
+    </row>
+    <row r="538" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C538" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="D538" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="E538" s="12"/>
+      <c r="F538" s="12"/>
+    </row>
+    <row r="539" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C539" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="D539" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="E539" s="12"/>
+      <c r="F539" s="12"/>
+    </row>
+    <row r="540" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C540" s="16" t="s">
+        <v>989</v>
+      </c>
+      <c r="D540" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="E540" s="12"/>
+      <c r="F540" s="12"/>
+    </row>
+    <row r="541" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C541" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="D541" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="E541" s="12"/>
+      <c r="F541" s="12"/>
+    </row>
+    <row r="542" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C542" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="D542" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="E542" s="12"/>
+      <c r="F542" s="12"/>
+    </row>
+    <row r="543" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C543" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="D543" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="E543" s="12"/>
+      <c r="F543" s="12"/>
+    </row>
+    <row r="544" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C544" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="D544" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="E544" s="12"/>
+      <c r="F544" s="12"/>
+    </row>
+    <row r="545" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C545" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="D545" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E545" s="12"/>
+      <c r="F545" s="12"/>
+    </row>
+    <row r="546" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C546" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D546" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E546" s="12"/>
+      <c r="F546" s="12"/>
+    </row>
+    <row r="547" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C547" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D547" s="12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E547" s="12"/>
+      <c r="F547" s="12"/>
+    </row>
+    <row r="548" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C548" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D548" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E548" s="12"/>
+      <c r="F548" s="12"/>
+    </row>
+    <row r="549" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C549" s="16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D549" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E549" s="12"/>
+      <c r="F549" s="12"/>
+    </row>
+    <row r="550" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C550" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D550" s="12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E550" s="12"/>
+      <c r="F550" s="12"/>
+    </row>
+    <row r="551" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C551" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D551" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E551" s="12"/>
+      <c r="F551" s="12"/>
+    </row>
+    <row r="552" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C552" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D552" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E552" s="12"/>
+      <c r="F552" s="12"/>
+    </row>
+    <row r="553" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C553" s="16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D553" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E553" s="12"/>
+      <c r="F553" s="12"/>
+    </row>
+    <row r="554" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C554" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D554" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E554" s="12"/>
+      <c r="F554" s="12"/>
+    </row>
+    <row r="555" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C555" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D555" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E555" s="12"/>
+      <c r="F555" s="12"/>
+    </row>
+    <row r="556" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C556" s="16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D556" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E556" s="12"/>
+      <c r="F556" s="12"/>
+    </row>
+    <row r="557" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C557" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D557" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E557" s="12"/>
+      <c r="F557" s="12"/>
+    </row>
+    <row r="558" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C558" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D558" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E558" s="12"/>
+      <c r="F558" s="12"/>
+    </row>
+    <row r="559" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C559" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D559" s="12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E559" s="12"/>
+      <c r="F559" s="12"/>
+    </row>
+    <row r="560" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C560" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D560" s="12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E560" s="12"/>
+      <c r="F560" s="12"/>
+    </row>
+    <row r="561" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C561" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D561" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E561" s="12"/>
+      <c r="F561" s="12"/>
+    </row>
+    <row r="562" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C562" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D562" s="12" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E562" s="12"/>
+      <c r="F562" s="12"/>
+    </row>
+    <row r="563" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C563" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D563" s="12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E563" s="12"/>
+      <c r="F563" s="12"/>
+    </row>
+    <row r="564" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C564" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D564" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E564" s="12"/>
+      <c r="F564" s="12"/>
+    </row>
+    <row r="565" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C565" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D565" s="12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E565" s="12"/>
+      <c r="F565" s="12"/>
+    </row>
+    <row r="566" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C566" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D566" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E566" s="12"/>
+      <c r="F566" s="12"/>
+    </row>
+    <row r="567" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C567" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D567" s="12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E567" s="12"/>
+      <c r="F567" s="12"/>
+    </row>
+    <row r="568" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C568" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D568" s="12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E568" s="12"/>
+      <c r="F568" s="12"/>
+    </row>
+    <row r="569" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C569" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D569" s="12" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E569" s="12"/>
+      <c r="F569" s="12"/>
+    </row>
+    <row r="570" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C570" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D570" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E570" s="12"/>
+      <c r="F570" s="12"/>
+    </row>
+    <row r="571" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C571" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D571" s="12" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E571" s="12"/>
+      <c r="F571" s="12"/>
+    </row>
+    <row r="572" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C572" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D572" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E572" s="12"/>
+      <c r="F572" s="12"/>
+    </row>
+    <row r="573" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C573" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D573" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E573" s="12"/>
+      <c r="F573" s="12"/>
+    </row>
+    <row r="574" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C574" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D574" s="12" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E574" s="12"/>
+      <c r="F574" s="12"/>
+    </row>
+    <row r="575" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C575" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D575" s="12" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E575" s="12"/>
+      <c r="F575" s="12"/>
+    </row>
+    <row r="576" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C576" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D576" s="12" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E576" s="12"/>
+      <c r="F576" s="12"/>
+    </row>
+    <row r="577" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C577" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D577" s="12" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E577" s="12"/>
+      <c r="F577" s="12"/>
+    </row>
+    <row r="578" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C578" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D578" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E578" s="12"/>
+      <c r="F578" s="12"/>
+    </row>
+    <row r="579" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C579" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D579" s="12" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E579" s="12"/>
+      <c r="F579" s="12"/>
+    </row>
+    <row r="580" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C580" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D580" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E580" s="12"/>
+      <c r="F580" s="12"/>
+    </row>
+    <row r="581" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C581" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D581" s="12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E581" s="12"/>
+      <c r="F581" s="12"/>
+    </row>
+    <row r="582" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C582" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D582" s="12" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E582" s="12"/>
+      <c r="F582" s="12"/>
+    </row>
+    <row r="583" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C583" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D583" s="12" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E583" s="12"/>
+      <c r="F583" s="12"/>
+    </row>
+    <row r="584" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C584" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D584" s="12" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E584" s="12"/>
+      <c r="F584" s="12"/>
+    </row>
+    <row r="585" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C585" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D585" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E585" s="12"/>
+      <c r="F585" s="12"/>
+    </row>
+    <row r="586" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C586" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D586" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E586" s="12"/>
+      <c r="F586" s="12"/>
+    </row>
+    <row r="587" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C587" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D587" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E587" s="12"/>
+      <c r="F587" s="12"/>
+    </row>
+    <row r="588" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C588" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D588" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E588" s="12"/>
+      <c r="F588" s="12"/>
+    </row>
+    <row r="589" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C589" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D589" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E589" s="12"/>
+      <c r="F589" s="12"/>
+    </row>
+    <row r="590" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C590" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D590" s="19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E590" s="12"/>
+      <c r="F590" s="12"/>
+    </row>
+    <row r="591" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C591" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D591" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="E591" s="12"/>
+      <c r="F591" s="12"/>
+    </row>
+    <row r="592" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C592" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D592" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E592" s="12"/>
+      <c r="F592" s="12"/>
+    </row>
+    <row r="593" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C593" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D593" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E593" s="12"/>
+      <c r="F593" s="12"/>
+    </row>
+    <row r="594" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C594" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D594" s="12" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E594" s="12"/>
+      <c r="F594" s="12"/>
+    </row>
+    <row r="595" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C595" s="16" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D595" s="12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E595" s="12"/>
+      <c r="F595" s="12"/>
+    </row>
+    <row r="596" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C596" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D596" s="12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E596" s="12"/>
+      <c r="F596" s="12"/>
+    </row>
+    <row r="597" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C597" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D597" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E597" s="12"/>
+      <c r="F597" s="12"/>
+    </row>
+    <row r="598" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C598" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D598" s="12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E598" s="12"/>
+      <c r="F598" s="12"/>
+    </row>
+    <row r="599" spans="3:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C599" s="27" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D599" s="28" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E599" s="28"/>
+      <c r="F599" s="28"/>
+    </row>
+    <row r="600" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C600" s="19" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D600" s="12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E600" s="12"/>
+      <c r="F600" s="12"/>
+    </row>
+    <row r="601" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C601" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D601" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E601" s="12"/>
+      <c r="F601" s="12"/>
+    </row>
+    <row r="602" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C602" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D602" s="12" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E602" s="12"/>
+      <c r="F602" s="12"/>
+    </row>
+    <row r="603" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C603" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E603" s="5"/>
+      <c r="F603" s="5"/>
+    </row>
+    <row r="604" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C604" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E604" s="5"/>
+      <c r="F604" s="5"/>
+    </row>
+    <row r="605" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C605" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E605" s="5"/>
+      <c r="F605" s="5"/>
+    </row>
+    <row r="606" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C606" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E606" s="5"/>
+      <c r="F606" s="5"/>
+    </row>
+    <row r="607" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C607" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E607" s="12"/>
+      <c r="F607" s="12"/>
+    </row>
+    <row r="608" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C608" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E608" s="5"/>
+      <c r="F608" s="12"/>
+    </row>
+    <row r="609" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C609" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E609" s="5"/>
+      <c r="F609" s="12"/>
+    </row>
+    <row r="610" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C610" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E610" s="5"/>
+      <c r="F610" s="12"/>
+    </row>
+    <row r="611" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C611" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E611" s="12"/>
+      <c r="F611" s="12"/>
+    </row>
+    <row r="612" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C612" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E612" s="12"/>
+      <c r="F612" s="12"/>
+    </row>
+    <row r="613" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C613" s="22" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E613" s="12"/>
+      <c r="F613" s="12"/>
+    </row>
+    <row r="614" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C614" s="22" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E614" s="12"/>
+      <c r="F614" s="12"/>
+    </row>
+    <row r="615" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C615" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E615" s="12"/>
+      <c r="F615" s="12"/>
+    </row>
+    <row r="616" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C616" s="22" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E616" s="12"/>
+      <c r="F616" s="12"/>
+    </row>
+    <row r="617" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C617" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E617" s="12"/>
+      <c r="F617" s="12"/>
+    </row>
+    <row r="618" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C618" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E618" s="12"/>
+      <c r="F618" s="12"/>
+    </row>
+    <row r="619" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C619" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E619" s="12"/>
+      <c r="F619" s="12"/>
+    </row>
+    <row r="620" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C620" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E620" s="12"/>
+      <c r="F620" s="12"/>
+    </row>
+    <row r="621" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C621" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D621" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E621" s="12"/>
+      <c r="F621" s="12"/>
+    </row>
+    <row r="622" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C622" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E622" s="12"/>
+      <c r="F622" s="12"/>
+    </row>
+    <row r="623" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C623" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D623" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E623" s="12"/>
+      <c r="F623" s="12"/>
+    </row>
+    <row r="624" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C624" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E624" s="5"/>
+      <c r="F624" s="12"/>
+    </row>
+    <row r="625" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C625" s="22" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E625" s="5"/>
+      <c r="F625" s="12"/>
+    </row>
+    <row r="626" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C626" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D626" s="23" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E626" s="5"/>
+      <c r="F626" s="12"/>
+    </row>
+    <row r="627" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C627" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D627" s="23" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E627" s="5"/>
+      <c r="F627" s="12"/>
+    </row>
+    <row r="628" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C628" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D628" s="23" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E628" s="5"/>
+      <c r="F628" s="12"/>
+    </row>
+    <row r="629" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C629" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D629" s="23" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E629" s="5"/>
+      <c r="F629" s="12"/>
+    </row>
+    <row r="630" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C630" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D630" s="23" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E630" s="5"/>
+      <c r="F630" s="12"/>
+    </row>
+    <row r="631" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C631" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D631" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E631" s="5"/>
+      <c r="F631" s="12"/>
+    </row>
+    <row r="632" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C632" s="22" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D632" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E632" s="5"/>
+      <c r="F632" s="12"/>
+    </row>
+    <row r="633" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C633" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D633" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E633" s="5"/>
+      <c r="F633" s="12"/>
+    </row>
+    <row r="634" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C634" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D634" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E634" s="5"/>
+      <c r="F634" s="12"/>
+    </row>
+    <row r="635" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C635" s="22" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D635" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E635" s="5"/>
+      <c r="F635" s="12"/>
+    </row>
+    <row r="636" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C636" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D636" s="23" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E636" s="5"/>
+      <c r="F636" s="12"/>
+    </row>
+    <row r="637" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C637" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D637" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E637" s="5"/>
+      <c r="F637" s="12"/>
+    </row>
+    <row r="638" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C638" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D638" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E638" s="5"/>
+      <c r="F638" s="12"/>
+    </row>
+    <row r="639" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C639" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D639" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E639" s="5"/>
+      <c r="F639" s="12"/>
+    </row>
+    <row r="640" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C640" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D640" s="23" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E640" s="5"/>
+      <c r="F640" s="12"/>
+    </row>
+    <row r="641" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C641" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D641" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E641" s="5"/>
+      <c r="F641" s="12"/>
+    </row>
+    <row r="642" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C642" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D642" s="23" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E642" s="5"/>
+      <c r="F642" s="12"/>
+    </row>
+    <row r="643" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C643" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D643" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E643" s="5"/>
+      <c r="F643" s="12"/>
+    </row>
+    <row r="644" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C644" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D644" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E644" s="5"/>
+      <c r="F644" s="12"/>
+    </row>
+    <row r="645" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C645" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D645" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E645" s="5"/>
+      <c r="F645" s="12"/>
+    </row>
+    <row r="646" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C646" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D646" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E646" s="5"/>
+      <c r="F646" s="12"/>
+    </row>
+    <row r="647" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C647" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D647" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E647" s="5"/>
+      <c r="F647" s="12"/>
+    </row>
+    <row r="648" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C648" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D648" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E648" s="5"/>
+      <c r="F648" s="12"/>
+    </row>
+    <row r="649" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C649" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D649" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E649" s="5"/>
+      <c r="F649" s="12"/>
+    </row>
+    <row r="650" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C650" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D650" s="23" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E650" s="5"/>
+      <c r="F650" s="12"/>
+    </row>
+    <row r="651" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C651" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D651" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E651" s="5"/>
+      <c r="F651" s="12"/>
+    </row>
+    <row r="652" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C652" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D652" s="23" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E652" s="5"/>
+      <c r="F652" s="12"/>
+    </row>
+    <row r="653" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C653" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D653" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E653" s="5"/>
+      <c r="F653" s="12"/>
+    </row>
+    <row r="654" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C654" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D654" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E654" s="5"/>
+      <c r="F654" s="12"/>
+    </row>
+    <row r="655" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C655" s="26" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D655" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E655" s="5"/>
+      <c r="F655" s="12"/>
+    </row>
+    <row r="656" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C656" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D656" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E656" s="5"/>
+      <c r="F656" s="12"/>
+    </row>
+    <row r="657" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C657" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D657" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E657" s="5"/>
+      <c r="F657" s="12"/>
+    </row>
+    <row r="658" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C658" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D658" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E658" s="5"/>
+      <c r="F658" s="12"/>
+    </row>
+    <row r="659" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C659" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D659" s="23" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E659" s="5"/>
+      <c r="F659" s="12"/>
+    </row>
+    <row r="660" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C660" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D660" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E660" s="5"/>
+      <c r="F660" s="12"/>
+    </row>
+    <row r="661" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C661" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D661" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E661" s="5"/>
+      <c r="F661" s="12"/>
+    </row>
+    <row r="662" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C662" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D662" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E662" s="5"/>
+      <c r="F662" s="12"/>
+    </row>
+    <row r="663" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C663" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D663" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E663" s="5"/>
+      <c r="F663" s="12"/>
+    </row>
+    <row r="664" spans="3:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="C664" s="23" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D664" s="24" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E664" s="12"/>
+      <c r="F664" s="12"/>
+    </row>
+    <row r="665" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C665" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D665" s="5" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="666" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C666" s="25" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D666" s="5" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="667" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C667" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D667" s="5" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="668" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C668" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D668" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E668" s="5"/>
+      <c r="F668" s="5"/>
+      <c r="G668" s="5"/>
+      <c r="I668" s="5"/>
+      <c r="J668" s="5"/>
+    </row>
+    <row r="669" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C669" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D669" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E669" s="5"/>
+      <c r="F669" s="5"/>
+      <c r="G669" s="5"/>
+      <c r="I669" s="5"/>
+      <c r="J669" s="5"/>
+    </row>
+    <row r="670" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C670" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D670" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E670" s="5"/>
+      <c r="F670" s="5"/>
+      <c r="G670" s="5"/>
+      <c r="I670" s="5"/>
+      <c r="J670" s="5"/>
+    </row>
+    <row r="671" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C671" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D671" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E671" s="5"/>
+      <c r="F671" s="5"/>
+      <c r="G671" s="5"/>
+      <c r="I671" s="5"/>
+      <c r="J671" s="5"/>
+    </row>
+    <row r="672" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C672" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D672" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E672" s="5"/>
+      <c r="F672" s="5"/>
+      <c r="G672" s="5"/>
+      <c r="I672" s="5"/>
+      <c r="J672" s="5"/>
+    </row>
+    <row r="673" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C673" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D673" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E673" s="5"/>
+      <c r="F673" s="5"/>
+      <c r="G673" s="5"/>
+      <c r="I673" s="5"/>
+      <c r="J673" s="5"/>
+    </row>
+    <row r="674" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C674" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D674" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E674" s="5"/>
+      <c r="F674" s="5"/>
+      <c r="G674" s="5"/>
+      <c r="I674" s="5"/>
+      <c r="J674" s="5"/>
+    </row>
+    <row r="675" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C675" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D675" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E675" s="5"/>
+      <c r="F675" s="5"/>
+      <c r="G675" s="5"/>
+      <c r="I675" s="5"/>
+      <c r="J675" s="5"/>
+    </row>
+    <row r="676" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C676" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D676" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E676" s="5"/>
+      <c r="F676" s="5"/>
+      <c r="G676" s="5"/>
+      <c r="I676" s="5"/>
+      <c r="J676" s="5"/>
+    </row>
+    <row r="677" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C677" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D677" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E677" s="5"/>
+      <c r="F677" s="5"/>
+      <c r="G677" s="5"/>
+      <c r="I677" s="5"/>
+      <c r="J677" s="5"/>
+    </row>
+    <row r="678" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C678" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D678" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E678" s="5"/>
+      <c r="F678" s="5"/>
+      <c r="G678" s="5"/>
+      <c r="I678" s="5"/>
+      <c r="J678" s="5"/>
+    </row>
+    <row r="679" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C679" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D679" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E679" s="5"/>
+      <c r="F679" s="5"/>
+      <c r="G679" s="5"/>
+      <c r="I679" s="5"/>
+      <c r="J679" s="5"/>
+    </row>
+    <row r="680" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C680" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D680" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E680" s="5"/>
+      <c r="F680" s="5"/>
+      <c r="G680" s="5"/>
+      <c r="I680" s="5"/>
+      <c r="J680" s="5"/>
+    </row>
+    <row r="681" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C681" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D681" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E681" s="5"/>
+      <c r="F681" s="5"/>
+      <c r="G681" s="5"/>
+      <c r="I681" s="5"/>
+      <c r="J681" s="5"/>
+    </row>
+    <row r="682" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C682" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D682" s="5" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="683" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C683" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D683" s="5" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="684" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C684" s="31" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D684" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="685" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C685" s="31" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D685" s="5" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="686" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C686" s="31" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D686" s="5" t="s">
+        <v>1258</v>
       </c>
     </row>
   </sheetData>
